--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Con.Multi.Protein.PlaquePhenotypes.RANK.MODEL2.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Con.Multi.Protein.PlaquePhenotypes.RANK.MODEL2.xlsx
@@ -407,7 +407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -467,31 +467,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.059193127441504</v>
+        <v>0.0591931274414916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0299453706252824</v>
+        <v>0.0299453706252794</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0609801253322</v>
+        <v>1.06098012533218</v>
       </c>
       <c r="G2" t="n">
-        <v>1.00050032613734</v>
+        <v>1.00050032613733</v>
       </c>
       <c r="H2" t="n">
-        <v>1.12511590145689</v>
+        <v>1.12511590145687</v>
       </c>
       <c r="I2" t="n">
-        <v>1.97670378444167</v>
+        <v>1.97670378444145</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0483492455946357</v>
+        <v>0.0483492455946605</v>
       </c>
       <c r="K2" t="n">
-        <v>0.175134735339053</v>
+        <v>0.175134735339154</v>
       </c>
       <c r="L2" t="n">
-        <v>0.15947795209374</v>
+        <v>0.159477952093844</v>
       </c>
       <c r="M2" t="n">
         <v>2423</v>
@@ -514,31 +514,31 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0935853937485409</v>
+        <v>-0.0935853937485278</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0306081507745204</v>
+        <v>0.0306081507745228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.910660249413451</v>
+        <v>0.910660249413463</v>
       </c>
       <c r="G3" t="n">
-        <v>0.857634407086772</v>
+        <v>0.85763440708678</v>
       </c>
       <c r="H3" t="n">
-        <v>0.966964574892414</v>
+        <v>0.966964574892431</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.05753178092829</v>
+        <v>-3.05753178092762</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00229118553923474</v>
+        <v>0.00229118553923976</v>
       </c>
       <c r="K3" t="n">
-        <v>0.178770483706238</v>
+        <v>0.17877048370615</v>
       </c>
       <c r="L3" t="n">
-        <v>0.163120171961422</v>
+        <v>0.163120171961333</v>
       </c>
       <c r="M3" t="n">
         <v>2423</v>
@@ -561,10 +561,10 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.125648535520029</v>
+        <v>0.125648535520028</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0297285096836621</v>
+        <v>0.0297285096836628</v>
       </c>
       <c r="F4" t="n">
         <v>1.1338835784398</v>
@@ -573,19 +573,19 @@
         <v>1.06970258997158</v>
       </c>
       <c r="H4" t="n">
-        <v>1.20191535620157</v>
+        <v>1.20191535620158</v>
       </c>
       <c r="I4" t="n">
-        <v>4.22653327923402</v>
+        <v>4.22653327923391</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000259115684864657</v>
+        <v>0.0000259115684864775</v>
       </c>
       <c r="K4" t="n">
-        <v>0.185681897358199</v>
+        <v>0.185681897358167</v>
       </c>
       <c r="L4" t="n">
-        <v>0.170147716685313</v>
+        <v>0.17014771668528</v>
       </c>
       <c r="M4" t="n">
         <v>2423</v>
@@ -608,31 +608,31 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0772834794220835</v>
+        <v>-0.077283479422085</v>
       </c>
       <c r="E5" t="n">
         <v>0.0309629229754876</v>
       </c>
       <c r="F5" t="n">
-        <v>0.925627420084891</v>
+        <v>0.92562742008489</v>
       </c>
       <c r="G5" t="n">
-        <v>0.87112412083445</v>
+        <v>0.871124120834449</v>
       </c>
       <c r="H5" t="n">
-        <v>0.983540807011859</v>
+        <v>0.983540807011857</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.4960007646328</v>
+        <v>-2.49600076463284</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0127318944309786</v>
+        <v>0.0127318944309769</v>
       </c>
       <c r="K5" t="n">
-        <v>0.169990765976173</v>
+        <v>0.169990765976172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.153088112764541</v>
+        <v>0.15308811276454</v>
       </c>
       <c r="M5" t="n">
         <v>2423</v>
@@ -655,31 +655,31 @@
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0999632452019929</v>
+        <v>0.0999632452020648</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0411837693714508</v>
+        <v>0.0411837693714463</v>
       </c>
       <c r="F6" t="n">
-        <v>1.10513029848828</v>
+        <v>1.10513029848836</v>
       </c>
       <c r="G6" t="n">
-        <v>1.01942939819726</v>
+        <v>1.01942939819734</v>
       </c>
       <c r="H6" t="n">
-        <v>1.1980358608419</v>
+        <v>1.19803586084197</v>
       </c>
       <c r="I6" t="n">
-        <v>2.42724856727876</v>
+        <v>2.42724856728077</v>
       </c>
       <c r="J6" t="n">
-        <v>0.015581520515397</v>
+        <v>0.0155815205153116</v>
       </c>
       <c r="K6" t="n">
-        <v>0.110762120882514</v>
+        <v>0.110762120882711</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0792025301831464</v>
+        <v>0.0792025301833503</v>
       </c>
       <c r="M6" t="n">
         <v>2423</v>
@@ -702,31 +702,31 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.227720103608168</v>
+        <v>-0.227720103608176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0424807038986717</v>
+        <v>0.0424807038986688</v>
       </c>
       <c r="F7" t="n">
-        <v>0.796347123331121</v>
+        <v>0.796347123331115</v>
       </c>
       <c r="G7" t="n">
-        <v>0.732726857293206</v>
+        <v>0.732726857293204</v>
       </c>
       <c r="H7" t="n">
-        <v>0.865491328078867</v>
+        <v>0.865491328078855</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.3605539152869</v>
+        <v>-5.36055391528745</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000000129466998022448</v>
+        <v>0.000000129466998022075</v>
       </c>
       <c r="K7" t="n">
-        <v>0.15081486833686</v>
+        <v>0.15081486833695</v>
       </c>
       <c r="L7" t="n">
-        <v>0.120550408717839</v>
+        <v>0.120550408717931</v>
       </c>
       <c r="M7" t="n">
         <v>2423</v>
@@ -749,31 +749,31 @@
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>0.217844655645675</v>
+        <v>0.217844655645696</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0397153137650382</v>
+        <v>0.039715313765037</v>
       </c>
       <c r="F8" t="n">
-        <v>1.24339389839326</v>
+        <v>1.24339389839328</v>
       </c>
       <c r="G8" t="n">
-        <v>1.15027683635038</v>
+        <v>1.15027683635041</v>
       </c>
       <c r="H8" t="n">
-        <v>1.34404896082829</v>
+        <v>1.34404896082832</v>
       </c>
       <c r="I8" t="n">
-        <v>5.48515509494591</v>
+        <v>5.48515509494661</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0000000671987482998441</v>
+        <v>0.000000067198748299596</v>
       </c>
       <c r="K8" t="n">
-        <v>0.154967566431688</v>
+        <v>0.154967566431743</v>
       </c>
       <c r="L8" t="n">
-        <v>0.124787836661391</v>
+        <v>0.124787836661448</v>
       </c>
       <c r="M8" t="n">
         <v>2423</v>
@@ -796,31 +796,31 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0485023586164478</v>
+        <v>-0.0485023586164351</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0547113896396725</v>
+        <v>0.0547113896396764</v>
       </c>
       <c r="F9" t="n">
-        <v>0.952655092355215</v>
+        <v>0.952655092355227</v>
       </c>
       <c r="G9" t="n">
-        <v>0.855784503903727</v>
+        <v>0.855784503903731</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0604909540316</v>
+        <v>1.06049095403162</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.88651300827639</v>
+        <v>-0.886513008276095</v>
       </c>
       <c r="J9" t="n">
-        <v>0.375795488424973</v>
+        <v>0.375795488425131</v>
       </c>
       <c r="K9" t="n">
-        <v>0.103542301358103</v>
+        <v>0.103542301358023</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0710480990619153</v>
+        <v>0.0710480990618325</v>
       </c>
       <c r="M9" t="n">
         <v>2423</v>
